--- a/Day1_Sales_Insights_Template.xlsx
+++ b/Day1_Sales_Insights_Template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed Khaja\OneDrive\Desktop\Datanalytics_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F8843B-908E-4504-AB0B-7E471242B8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="SalesData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,13 +163,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,9 +228,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,32 +473,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -532,14 +531,14 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>45839</v>
       </c>
       <c r="F3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -550,7 +549,7 @@
         <v>80</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -559,7 +558,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -570,7 +569,7 @@
         <v>60</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -579,7 +578,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -590,7 +589,7 @@
         <v>55</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -599,7 +598,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -607,7 +606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -616,16 +615,16 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10">
         <f>SUM(D3:D6)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -634,7 +633,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -643,11 +642,11 @@
         <v>73.75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f>INDEX(A3:A6,MATCH(MAX(F3:F6),F3:F6,0))</f>
         <v>Apple</v>
       </c>
